--- a/artfynd/A 38897-2022.xlsx
+++ b/artfynd/A 38897-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88851580</v>
+        <v>88851573</v>
       </c>
       <c r="B2" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>455397.385352164</v>
+        <v>455430.5710154851</v>
       </c>
       <c r="R2" t="n">
-        <v>6661281.938838284</v>
+        <v>6661257.086945925</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88851563</v>
+        <v>88851577</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>73631</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,25 +814,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>455421.290190429</v>
+        <v>455433.5413200667</v>
       </c>
       <c r="R3" t="n">
-        <v>6660986.248122815</v>
+        <v>6661295.970494075</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88851586</v>
+        <v>88851572</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>77532</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,25 +936,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>455313.9347335646</v>
+        <v>455430.5710154851</v>
       </c>
       <c r="R4" t="n">
-        <v>6661406.694050296</v>
+        <v>6661257.086945925</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88851573</v>
+        <v>88851574</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>455430.5710154851</v>
+        <v>455430.6193910581</v>
       </c>
       <c r="R5" t="n">
-        <v>6661257.086945925</v>
+        <v>6661261.078127123</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88851487</v>
+        <v>88851575</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>455141.6747627376</v>
+        <v>455427.4357209833</v>
       </c>
       <c r="R6" t="n">
-        <v>6661338.438683518</v>
+        <v>6661287.063100692</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88851500</v>
+        <v>96124284</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,37 +1306,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Söder Omsjön, Vrm</t>
+          <t>Omsjön , Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>455246.5226429115</v>
+        <v>455425.424705414</v>
       </c>
       <c r="R7" t="n">
-        <v>6661124.098546795</v>
+        <v>6661286.089543476</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1360,22 +1361,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På gammal gran mot sumpskog</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1387,35 +1393,45 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emma Enfjäll</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emma Enfjäll</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88851511</v>
+        <v>88851580</v>
       </c>
       <c r="B8" t="n">
-        <v>78098</v>
+        <v>89356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1440,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1468,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>455319.2999020276</v>
+        <v>455397.385352164</v>
       </c>
       <c r="R8" t="n">
-        <v>6660902.15448941</v>
+        <v>6661281.938838284</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,7 +1532,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>gammal kådrik silverstubbe</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,7 +1550,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88851490</v>
+        <v>88851563</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1574,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>455158.7339795105</v>
+        <v>455421.290190429</v>
       </c>
       <c r="R9" t="n">
-        <v>6661261.88874221</v>
+        <v>6660986.248122815</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1654,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,7 +1672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88851587</v>
+        <v>88851586</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1696,10 +1712,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>455314.9099104099</v>
+        <v>455313.9347335646</v>
       </c>
       <c r="R10" t="n">
-        <v>6661404.686392841</v>
+        <v>6661406.694050296</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,10 +1794,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88851577</v>
+        <v>88851487</v>
       </c>
       <c r="B11" t="n">
-        <v>73631</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1790,25 +1806,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1834,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>455433.5413200667</v>
+        <v>455141.6747627376</v>
       </c>
       <c r="R11" t="n">
-        <v>6661295.970494075</v>
+        <v>6661338.438683518</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1898,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,7 +1916,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88851501</v>
+        <v>88851500</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1940,10 +1956,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>455220.2819339072</v>
+        <v>455246.5226429115</v>
       </c>
       <c r="R12" t="n">
-        <v>6661062.542718904</v>
+        <v>6661124.098546795</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,10 +2038,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88851492</v>
+        <v>88851511</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2054,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>455109.3520230773</v>
+        <v>455319.2999020276</v>
       </c>
       <c r="R13" t="n">
-        <v>6661229.060008604</v>
+        <v>6660902.15448941</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2142,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal kådrik silverstubbe</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,7 +2160,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>88851488</v>
+        <v>88851490</v>
       </c>
       <c r="B14" t="n">
         <v>77506</v>
@@ -2184,10 +2200,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>455151.2250332054</v>
+        <v>455158.7339795105</v>
       </c>
       <c r="R14" t="n">
-        <v>6661301.8978322</v>
+        <v>6661261.88874221</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2266,7 +2282,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>88851581</v>
+        <v>88851587</v>
       </c>
       <c r="B15" t="n">
         <v>77506</v>
@@ -2306,10 +2322,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>455336.0130422206</v>
+        <v>455314.9099104099</v>
       </c>
       <c r="R15" t="n">
-        <v>6661413.910062323</v>
+        <v>6661404.686392841</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2370,7 +2386,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2388,7 +2404,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>88851585</v>
+        <v>88851501</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2428,10 +2444,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>455312.8989278732</v>
+        <v>455220.2819339072</v>
       </c>
       <c r="R16" t="n">
-        <v>6661403.712928744</v>
+        <v>6661062.542718904</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2492,7 +2508,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2510,7 +2526,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>88851583</v>
+        <v>88851492</v>
       </c>
       <c r="B17" t="n">
         <v>77506</v>
@@ -2550,10 +2566,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>455332.6726207613</v>
+        <v>455109.3520230773</v>
       </c>
       <c r="R17" t="n">
-        <v>6661426.923327112</v>
+        <v>6661229.060008604</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2632,10 +2648,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>88851571</v>
+        <v>88851488</v>
       </c>
       <c r="B18" t="n">
-        <v>73631</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2644,25 +2660,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2672,10 +2688,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>455419.0166454307</v>
+        <v>455151.2250332054</v>
       </c>
       <c r="R18" t="n">
-        <v>6661252.237294384</v>
+        <v>6661301.8978322</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2736,7 +2752,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2754,7 +2770,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88851570</v>
+        <v>88851581</v>
       </c>
       <c r="B19" t="n">
         <v>77506</v>
@@ -2794,10 +2810,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>455391.0954693586</v>
+        <v>455336.0130422206</v>
       </c>
       <c r="R19" t="n">
-        <v>6661216.649752388</v>
+        <v>6661413.910062323</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2876,10 +2892,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>88851507</v>
+        <v>88851585</v>
       </c>
       <c r="B20" t="n">
-        <v>77595</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2888,25 +2904,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6450</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2916,10 +2932,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>455253.2800594822</v>
+        <v>455312.8989278732</v>
       </c>
       <c r="R20" t="n">
-        <v>6660898.9650174</v>
+        <v>6661403.712928744</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2980,7 +2996,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>mossigt stenblock</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2998,7 +3014,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>88851509</v>
+        <v>88851583</v>
       </c>
       <c r="B21" t="n">
         <v>77506</v>
@@ -3038,10 +3054,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>455274.1313786498</v>
+        <v>455332.6726207613</v>
       </c>
       <c r="R21" t="n">
-        <v>6660887.233889525</v>
+        <v>6661426.923327112</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3102,7 +3118,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3120,10 +3136,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>88851510</v>
+        <v>88851571</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>73631</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3132,25 +3148,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3160,10 +3176,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>455310.2735029954</v>
+        <v>455419.0166454307</v>
       </c>
       <c r="R22" t="n">
-        <v>6660899.769065968</v>
+        <v>6661252.237294384</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3224,7 +3240,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3242,10 +3258,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>88851572</v>
+        <v>88851570</v>
       </c>
       <c r="B23" t="n">
-        <v>77532</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3254,25 +3270,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3282,10 +3298,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>455430.5710154851</v>
+        <v>455391.0954693586</v>
       </c>
       <c r="R23" t="n">
-        <v>6661257.086945925</v>
+        <v>6661216.649752388</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3364,10 +3380,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>88851505</v>
+        <v>88851507</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>77595</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3376,25 +3392,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3404,10 +3420,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>455179.4509057835</v>
+        <v>455253.2800594822</v>
       </c>
       <c r="R24" t="n">
-        <v>6660952.260833508</v>
+        <v>6660898.9650174</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3468,7 +3484,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>mossigt stenblock</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3486,7 +3502,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88851565</v>
+        <v>88851509</v>
       </c>
       <c r="B25" t="n">
         <v>77506</v>
@@ -3526,10 +3542,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>455350.9375795999</v>
+        <v>455274.1313786498</v>
       </c>
       <c r="R25" t="n">
-        <v>6661161.251295985</v>
+        <v>6660887.233889525</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3590,7 +3606,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3608,7 +3624,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>88851486</v>
+        <v>88851510</v>
       </c>
       <c r="B26" t="n">
         <v>77506</v>
@@ -3648,10 +3664,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>455111.8070843629</v>
+        <v>455310.2735029954</v>
       </c>
       <c r="R26" t="n">
-        <v>6661348.283430871</v>
+        <v>6660899.769065968</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3712,7 +3728,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3730,7 +3746,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>88851489</v>
+        <v>88851505</v>
       </c>
       <c r="B27" t="n">
         <v>77506</v>
@@ -3770,10 +3786,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>455169.7037901467</v>
+        <v>455179.4509057835</v>
       </c>
       <c r="R27" t="n">
-        <v>6661259.759099712</v>
+        <v>6660952.260833508</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3834,7 +3850,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3852,10 +3868,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>88851508</v>
+        <v>88851565</v>
       </c>
       <c r="B28" t="n">
-        <v>77177</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3868,21 +3884,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3892,10 +3908,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>455277.411439875</v>
+        <v>455350.9375795999</v>
       </c>
       <c r="R28" t="n">
-        <v>6660869.229171767</v>
+        <v>6661161.251295985</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3956,7 +3972,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>gammal kådrik silverstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3974,7 +3990,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>88851574</v>
+        <v>88851486</v>
       </c>
       <c r="B29" t="n">
         <v>77506</v>
@@ -4014,10 +4030,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>455430.6193910581</v>
+        <v>455111.8070843629</v>
       </c>
       <c r="R29" t="n">
-        <v>6661261.078127123</v>
+        <v>6661348.283430871</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4096,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>88851575</v>
+        <v>88851489</v>
       </c>
       <c r="B30" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4112,21 +4128,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4136,10 +4152,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>455427.4357209833</v>
+        <v>455169.7037901467</v>
       </c>
       <c r="R30" t="n">
-        <v>6661287.063100692</v>
+        <v>6661259.759099712</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4200,7 +4216,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4218,10 +4234,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>88851567</v>
+        <v>88851508</v>
       </c>
       <c r="B31" t="n">
-        <v>77506</v>
+        <v>77177</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4234,21 +4250,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4258,10 +4274,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>455350.6922581788</v>
+        <v>455277.411439875</v>
       </c>
       <c r="R31" t="n">
-        <v>6661182.211563058</v>
+        <v>6660869.229171767</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4322,7 +4338,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal kådrik silverstubbe</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4340,7 +4356,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>88851569</v>
+        <v>88851567</v>
       </c>
       <c r="B32" t="n">
         <v>77506</v>
@@ -4380,10 +4396,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>455375.2309441704</v>
+        <v>455350.6922581788</v>
       </c>
       <c r="R32" t="n">
-        <v>6661227.320741172</v>
+        <v>6661182.211563058</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4462,7 +4478,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>88851491</v>
+        <v>88851569</v>
       </c>
       <c r="B33" t="n">
         <v>77506</v>
@@ -4502,10 +4518,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>455154.6996042175</v>
+        <v>455375.2309441704</v>
       </c>
       <c r="R33" t="n">
-        <v>6661258.944110936</v>
+        <v>6661227.320741172</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4584,10 +4600,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>88851564</v>
+        <v>88851491</v>
       </c>
       <c r="B34" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4596,25 +4612,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4624,10 +4640,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>455376.6431977981</v>
+        <v>455154.6996042175</v>
       </c>
       <c r="R34" t="n">
-        <v>6661096.569721075</v>
+        <v>6661258.944110936</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4684,6 +4700,11 @@
       <c r="AI34" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4701,10 +4722,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88851493</v>
+        <v>88851564</v>
       </c>
       <c r="B35" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4713,25 +4734,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4741,10 +4762,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>455102.8434921129</v>
+        <v>455376.6431977981</v>
       </c>
       <c r="R35" t="n">
-        <v>6661187.225226505</v>
+        <v>6661096.569721075</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4801,11 +4822,6 @@
       <c r="AI35" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4823,7 +4839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>88851503</v>
+        <v>88851493</v>
       </c>
       <c r="B36" t="n">
         <v>77506</v>
@@ -4863,10 +4879,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>455203.8580852604</v>
+        <v>455102.8434921129</v>
       </c>
       <c r="R36" t="n">
-        <v>6661027.313694566</v>
+        <v>6661187.225226505</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4945,7 +4961,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>88851588</v>
+        <v>88851503</v>
       </c>
       <c r="B37" t="n">
         <v>77506</v>
@@ -4985,10 +5001,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>455301.850633632</v>
+        <v>455203.8580852604</v>
       </c>
       <c r="R37" t="n">
-        <v>6661399.3566486</v>
+        <v>6661027.313694566</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5049,7 +5065,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5067,10 +5083,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>88851512</v>
+        <v>88851588</v>
       </c>
       <c r="B38" t="n">
-        <v>77177</v>
+        <v>77506</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5083,21 +5099,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5107,10 +5123,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>455358.8917326015</v>
+        <v>455301.850633632</v>
       </c>
       <c r="R38" t="n">
-        <v>6660910.656029785</v>
+        <v>6661399.3566486</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5171,7 +5187,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>gammal kådrik silverstubbe</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5189,10 +5205,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>88851579</v>
+        <v>88851512</v>
       </c>
       <c r="B39" t="n">
-        <v>77506</v>
+        <v>77177</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5205,21 +5221,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5229,10 +5245,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>455420.1212221009</v>
+        <v>455358.8917326015</v>
       </c>
       <c r="R39" t="n">
-        <v>6661302.120756663</v>
+        <v>6660910.656029785</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5293,7 +5309,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal kådrik silverstubbe</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5311,10 +5327,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>88851495</v>
+        <v>88851579</v>
       </c>
       <c r="B40" t="n">
-        <v>56366</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5323,42 +5339,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100136</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lappuggla</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Strix nebulosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>J.R. Forster, 1772</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Söder Omsjön, Vrm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>455193.7725582806</v>
+        <v>455420.1212221009</v>
       </c>
       <c r="R40" t="n">
-        <v>6661184.120231732</v>
+        <v>6661302.120756663</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5403,11 +5415,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>I häckningstid.</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5420,6 +5427,11 @@
       <c r="AI40" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5437,10 +5449,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88851496</v>
+        <v>88851495</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>56366</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5449,38 +5461,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100136</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappuggla</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Strix nebulosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>J.R. Forster, 1772</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Söder Omsjön, Vrm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>455190.9941855295</v>
+        <v>455193.7725582806</v>
       </c>
       <c r="R41" t="n">
-        <v>6661161.20084339</v>
+        <v>6661184.120231732</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5525,6 +5541,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>I häckningstid.</t>
+        </is>
+      </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
@@ -5537,11 +5558,6 @@
       <c r="AI41" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5559,7 +5575,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>88851494</v>
+        <v>88851496</v>
       </c>
       <c r="B42" t="n">
         <v>77506</v>
@@ -5599,10 +5615,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>455157.7848948041</v>
+        <v>455190.9941855295</v>
       </c>
       <c r="R42" t="n">
-        <v>6661184.059924156</v>
+        <v>6661161.20084339</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5681,7 +5697,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>88851497</v>
+        <v>88851494</v>
       </c>
       <c r="B43" t="n">
         <v>77506</v>
@@ -5721,10 +5737,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>455198.0696675617</v>
+        <v>455157.7848948041</v>
       </c>
       <c r="R43" t="n">
-        <v>6661167.601433368</v>
+        <v>6661184.059924156</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5803,7 +5819,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>88851502</v>
+        <v>88851497</v>
       </c>
       <c r="B44" t="n">
         <v>77506</v>
@@ -5843,10 +5859,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>455220.196878638</v>
+        <v>455198.0696675617</v>
       </c>
       <c r="R44" t="n">
-        <v>6661055.557771537</v>
+        <v>6661167.601433368</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5925,7 +5941,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>88851582</v>
+        <v>88851502</v>
       </c>
       <c r="B45" t="n">
         <v>77506</v>
@@ -5965,10 +5981,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>455332.6120174829</v>
+        <v>455220.196878638</v>
       </c>
       <c r="R45" t="n">
-        <v>6661421.934573673</v>
+        <v>6661055.557771537</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6029,7 +6045,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6047,7 +6063,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>88851566</v>
+        <v>88851582</v>
       </c>
       <c r="B46" t="n">
         <v>77506</v>
@@ -6087,10 +6103,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>455345.9643411137</v>
+        <v>455332.6120174829</v>
       </c>
       <c r="R46" t="n">
-        <v>6661163.307621051</v>
+        <v>6661421.934573673</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6151,7 +6167,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6169,7 +6185,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>88851568</v>
+        <v>88851566</v>
       </c>
       <c r="B47" t="n">
         <v>77506</v>
@@ -6209,10 +6225,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>455346.7791193393</v>
+        <v>455345.9643411137</v>
       </c>
       <c r="R47" t="n">
-        <v>6661189.244814977</v>
+        <v>6661163.307621051</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6291,7 +6307,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>88851498</v>
+        <v>88851568</v>
       </c>
       <c r="B48" t="n">
         <v>77506</v>
@@ -6331,10 +6347,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>455219.0529422208</v>
+        <v>455346.7791193393</v>
       </c>
       <c r="R48" t="n">
-        <v>6661166.846860484</v>
+        <v>6661189.244814977</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6395,7 +6411,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6413,10 +6429,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>88851584</v>
+        <v>88851498</v>
       </c>
       <c r="B49" t="n">
-        <v>77541</v>
+        <v>77506</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6429,21 +6445,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6453,10 +6469,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>455313.9589849854</v>
+        <v>455219.0529422208</v>
       </c>
       <c r="R49" t="n">
-        <v>6661408.689560764</v>
+        <v>6661166.846860484</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6507,7 +6523,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6518,7 +6533,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6536,10 +6551,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88851506</v>
+        <v>88851584</v>
       </c>
       <c r="B50" t="n">
-        <v>77506</v>
+        <v>77541</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6552,21 +6567,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6576,10 +6591,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>455251.3537807596</v>
+        <v>455313.9589849854</v>
       </c>
       <c r="R50" t="n">
-        <v>6660904.97669428</v>
+        <v>6661408.689560764</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6630,6 +6645,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6640,7 +6656,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6658,10 +6674,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>96124364</v>
+        <v>88851506</v>
       </c>
       <c r="B51" t="n">
-        <v>95525</v>
+        <v>77506</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6670,43 +6686,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>221941</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Omsjön gravplatsen , Vrm</t>
+          <t>Söder Omsjön, Vrm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>455394.4745343086</v>
+        <v>455251.3537807596</v>
       </c>
       <c r="R51" t="n">
-        <v>6661041.962742212</v>
+        <v>6660904.97669428</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6730,22 +6744,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6757,30 +6771,35 @@
       <c r="AG51" t="b">
         <v>0</v>
       </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Emma Enfjäll</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Emma Enfjäll</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>96124296</v>
+        <v>96124364</v>
       </c>
       <c r="B52" t="n">
-        <v>77541</v>
+        <v>95525</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6789,39 +6808,40 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>185</v>
+        <v>221941</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Omsjön , Vrm</t>
+          <t>Omsjön gravplatsen , Vrm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>455314.9826630448</v>
+        <v>455394.4745343086</v>
       </c>
       <c r="R52" t="n">
-        <v>6661410.672924263</v>
+        <v>6661041.962742212</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6853,7 +6873,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6863,7 +6883,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6877,22 +6897,7 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6910,10 +6915,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>96124305</v>
+        <v>96124296</v>
       </c>
       <c r="B53" t="n">
-        <v>90653</v>
+        <v>77541</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6922,37 +6927,28 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4364</v>
+        <v>185</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6960,10 +6956,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>455378.6785451422</v>
+        <v>455314.9826630448</v>
       </c>
       <c r="R53" t="n">
-        <v>6661099.538981039</v>
+        <v>6661410.672924263</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6995,7 +6991,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -7005,7 +7001,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7019,7 +7015,22 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7037,10 +7048,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>96124284</v>
+        <v>96124305</v>
       </c>
       <c r="B54" t="n">
-        <v>73693</v>
+        <v>90653</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7049,28 +7060,37 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>4364</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7078,10 +7098,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>455425.424705414</v>
+        <v>455378.6785451422</v>
       </c>
       <c r="R54" t="n">
-        <v>6661286.089543476</v>
+        <v>6661099.538981039</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7113,7 +7133,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -7123,12 +7143,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:35</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>På gammal gran mot sumpskog</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7142,22 +7157,7 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>

--- a/artfynd/A 38897-2022.xlsx
+++ b/artfynd/A 38897-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88851573</v>
+        <v>88851580</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>455430.5710154851</v>
+        <v>455397.385352164</v>
       </c>
       <c r="R2" t="n">
-        <v>6661257.086945925</v>
+        <v>6661281.938838284</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88851577</v>
+        <v>88851563</v>
       </c>
       <c r="B3" t="n">
-        <v>73631</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,25 +814,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>455433.5413200667</v>
+        <v>455421.290190429</v>
       </c>
       <c r="R3" t="n">
-        <v>6661295.970494075</v>
+        <v>6660986.248122815</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88851572</v>
+        <v>88851586</v>
       </c>
       <c r="B4" t="n">
-        <v>77532</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,25 +936,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>455430.5710154851</v>
+        <v>455313.9347335646</v>
       </c>
       <c r="R4" t="n">
-        <v>6661257.086945925</v>
+        <v>6661406.694050296</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88851574</v>
+        <v>88851573</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>455430.6193910581</v>
+        <v>455430.5710154851</v>
       </c>
       <c r="R5" t="n">
-        <v>6661261.078127123</v>
+        <v>6661257.086945925</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88851575</v>
+        <v>88851487</v>
       </c>
       <c r="B6" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>455427.4357209833</v>
+        <v>455141.6747627376</v>
       </c>
       <c r="R6" t="n">
-        <v>6661287.063100692</v>
+        <v>6661338.438683518</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96124284</v>
+        <v>88851500</v>
       </c>
       <c r="B7" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,38 +1306,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Omsjön , Vrm</t>
+          <t>Söder Omsjön, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>455425.424705414</v>
+        <v>455246.5226429115</v>
       </c>
       <c r="R7" t="n">
-        <v>6661286.089543476</v>
+        <v>6661124.098546795</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1361,27 +1360,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:35</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På gammal gran mot sumpskog</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1393,45 +1387,35 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
         <is>
           <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Emma Enfjäll</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Emma Enfjäll</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88851580</v>
+        <v>88851511</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>78098</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1440,25 +1424,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1468,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>455397.385352164</v>
+        <v>455319.2999020276</v>
       </c>
       <c r="R8" t="n">
-        <v>6661281.938838284</v>
+        <v>6660902.15448941</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1532,7 +1516,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>gammal kådrik silverstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1550,7 +1534,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88851563</v>
+        <v>88851490</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1590,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>455421.290190429</v>
+        <v>455158.7339795105</v>
       </c>
       <c r="R9" t="n">
-        <v>6660986.248122815</v>
+        <v>6661261.88874221</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1654,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1672,7 +1656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88851586</v>
+        <v>88851587</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1712,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>455313.9347335646</v>
+        <v>455314.9099104099</v>
       </c>
       <c r="R10" t="n">
-        <v>6661406.694050296</v>
+        <v>6661404.686392841</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1794,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88851487</v>
+        <v>88851577</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>73631</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1806,25 +1790,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1834,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>455141.6747627376</v>
+        <v>455433.5413200667</v>
       </c>
       <c r="R11" t="n">
-        <v>6661338.438683518</v>
+        <v>6661295.970494075</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1898,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1916,7 +1900,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88851500</v>
+        <v>88851501</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1956,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>455246.5226429115</v>
+        <v>455220.2819339072</v>
       </c>
       <c r="R12" t="n">
-        <v>6661124.098546795</v>
+        <v>6661062.542718904</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2038,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88851511</v>
+        <v>88851492</v>
       </c>
       <c r="B13" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2054,21 +2038,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2078,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>455319.2999020276</v>
+        <v>455109.3520230773</v>
       </c>
       <c r="R13" t="n">
-        <v>6660902.15448941</v>
+        <v>6661229.060008604</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2142,7 +2126,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gammal kådrik silverstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2160,7 +2144,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>88851490</v>
+        <v>88851488</v>
       </c>
       <c r="B14" t="n">
         <v>77506</v>
@@ -2200,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>455158.7339795105</v>
+        <v>455151.2250332054</v>
       </c>
       <c r="R14" t="n">
-        <v>6661261.88874221</v>
+        <v>6661301.8978322</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2282,7 +2266,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>88851587</v>
+        <v>88851581</v>
       </c>
       <c r="B15" t="n">
         <v>77506</v>
@@ -2322,10 +2306,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>455314.9099104099</v>
+        <v>455336.0130422206</v>
       </c>
       <c r="R15" t="n">
-        <v>6661404.686392841</v>
+        <v>6661413.910062323</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2386,7 +2370,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2404,7 +2388,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>88851501</v>
+        <v>88851585</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2444,10 +2428,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>455220.2819339072</v>
+        <v>455312.8989278732</v>
       </c>
       <c r="R16" t="n">
-        <v>6661062.542718904</v>
+        <v>6661403.712928744</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2508,7 +2492,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2526,7 +2510,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>88851492</v>
+        <v>88851583</v>
       </c>
       <c r="B17" t="n">
         <v>77506</v>
@@ -2566,10 +2550,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>455109.3520230773</v>
+        <v>455332.6726207613</v>
       </c>
       <c r="R17" t="n">
-        <v>6661229.060008604</v>
+        <v>6661426.923327112</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2648,10 +2632,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>88851488</v>
+        <v>88851571</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>73631</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2660,25 +2644,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2688,10 +2672,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>455151.2250332054</v>
+        <v>455419.0166454307</v>
       </c>
       <c r="R18" t="n">
-        <v>6661301.8978322</v>
+        <v>6661252.237294384</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2752,7 +2736,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2770,7 +2754,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88851581</v>
+        <v>88851570</v>
       </c>
       <c r="B19" t="n">
         <v>77506</v>
@@ -2810,10 +2794,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>455336.0130422206</v>
+        <v>455391.0954693586</v>
       </c>
       <c r="R19" t="n">
-        <v>6661413.910062323</v>
+        <v>6661216.649752388</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2892,10 +2876,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>88851585</v>
+        <v>88851507</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>77595</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2904,25 +2888,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2932,10 +2916,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>455312.8989278732</v>
+        <v>455253.2800594822</v>
       </c>
       <c r="R20" t="n">
-        <v>6661403.712928744</v>
+        <v>6660898.9650174</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2996,7 +2980,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>mossigt stenblock</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3014,7 +2998,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>88851583</v>
+        <v>88851509</v>
       </c>
       <c r="B21" t="n">
         <v>77506</v>
@@ -3054,10 +3038,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>455332.6726207613</v>
+        <v>455274.1313786498</v>
       </c>
       <c r="R21" t="n">
-        <v>6661426.923327112</v>
+        <v>6660887.233889525</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3118,7 +3102,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3136,10 +3120,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>88851571</v>
+        <v>88851510</v>
       </c>
       <c r="B22" t="n">
-        <v>73631</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3148,25 +3132,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3176,10 +3160,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>455419.0166454307</v>
+        <v>455310.2735029954</v>
       </c>
       <c r="R22" t="n">
-        <v>6661252.237294384</v>
+        <v>6660899.769065968</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3240,7 +3224,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3258,10 +3242,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>88851570</v>
+        <v>88851572</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>77532</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3270,25 +3254,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3298,10 +3282,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>455391.0954693586</v>
+        <v>455430.5710154851</v>
       </c>
       <c r="R23" t="n">
-        <v>6661216.649752388</v>
+        <v>6661257.086945925</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3380,10 +3364,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>88851507</v>
+        <v>88851505</v>
       </c>
       <c r="B24" t="n">
-        <v>77595</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3392,25 +3376,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6450</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3420,10 +3404,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>455253.2800594822</v>
+        <v>455179.4509057835</v>
       </c>
       <c r="R24" t="n">
-        <v>6660898.9650174</v>
+        <v>6660952.260833508</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3484,7 +3468,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>mossigt stenblock</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3502,7 +3486,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88851509</v>
+        <v>88851565</v>
       </c>
       <c r="B25" t="n">
         <v>77506</v>
@@ -3542,10 +3526,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>455274.1313786498</v>
+        <v>455350.9375795999</v>
       </c>
       <c r="R25" t="n">
-        <v>6660887.233889525</v>
+        <v>6661161.251295985</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3606,7 +3590,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3624,7 +3608,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>88851510</v>
+        <v>88851486</v>
       </c>
       <c r="B26" t="n">
         <v>77506</v>
@@ -3664,10 +3648,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>455310.2735029954</v>
+        <v>455111.8070843629</v>
       </c>
       <c r="R26" t="n">
-        <v>6660899.769065968</v>
+        <v>6661348.283430871</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3728,7 +3712,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3746,7 +3730,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>88851505</v>
+        <v>88851489</v>
       </c>
       <c r="B27" t="n">
         <v>77506</v>
@@ -3786,10 +3770,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>455179.4509057835</v>
+        <v>455169.7037901467</v>
       </c>
       <c r="R27" t="n">
-        <v>6660952.260833508</v>
+        <v>6661259.759099712</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3850,7 +3834,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3868,10 +3852,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>88851565</v>
+        <v>88851508</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>77177</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3884,21 +3868,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3908,10 +3892,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>455350.9375795999</v>
+        <v>455277.411439875</v>
       </c>
       <c r="R28" t="n">
-        <v>6661161.251295985</v>
+        <v>6660869.229171767</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3972,7 +3956,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal kådrik silverstubbe</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3990,7 +3974,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>88851486</v>
+        <v>88851574</v>
       </c>
       <c r="B29" t="n">
         <v>77506</v>
@@ -4030,10 +4014,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>455111.8070843629</v>
+        <v>455430.6193910581</v>
       </c>
       <c r="R29" t="n">
-        <v>6661348.283430871</v>
+        <v>6661261.078127123</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4112,10 +4096,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>88851489</v>
+        <v>88851575</v>
       </c>
       <c r="B30" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,21 +4112,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4152,10 +4136,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>455169.7037901467</v>
+        <v>455427.4357209833</v>
       </c>
       <c r="R30" t="n">
-        <v>6661259.759099712</v>
+        <v>6661287.063100692</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4216,7 +4200,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4234,10 +4218,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>88851508</v>
+        <v>88851567</v>
       </c>
       <c r="B31" t="n">
-        <v>77177</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4250,21 +4234,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4274,10 +4258,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>455277.411439875</v>
+        <v>455350.6922581788</v>
       </c>
       <c r="R31" t="n">
-        <v>6660869.229171767</v>
+        <v>6661182.211563058</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4338,7 +4322,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>gammal kådrik silverstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4356,7 +4340,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>88851567</v>
+        <v>88851569</v>
       </c>
       <c r="B32" t="n">
         <v>77506</v>
@@ -4396,10 +4380,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>455350.6922581788</v>
+        <v>455375.2309441704</v>
       </c>
       <c r="R32" t="n">
-        <v>6661182.211563058</v>
+        <v>6661227.320741172</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4478,7 +4462,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>88851569</v>
+        <v>88851491</v>
       </c>
       <c r="B33" t="n">
         <v>77506</v>
@@ -4518,10 +4502,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>455375.2309441704</v>
+        <v>455154.6996042175</v>
       </c>
       <c r="R33" t="n">
-        <v>6661227.320741172</v>
+        <v>6661258.944110936</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4600,10 +4584,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>88851491</v>
+        <v>88851564</v>
       </c>
       <c r="B34" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4612,25 +4596,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4640,10 +4624,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>455154.6996042175</v>
+        <v>455376.6431977981</v>
       </c>
       <c r="R34" t="n">
-        <v>6661258.944110936</v>
+        <v>6661096.569721075</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4700,11 +4684,6 @@
       <c r="AI34" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4722,10 +4701,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88851564</v>
+        <v>88851493</v>
       </c>
       <c r="B35" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4734,25 +4713,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4762,10 +4741,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>455376.6431977981</v>
+        <v>455102.8434921129</v>
       </c>
       <c r="R35" t="n">
-        <v>6661096.569721075</v>
+        <v>6661187.225226505</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4822,6 +4801,11 @@
       <c r="AI35" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4839,7 +4823,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>88851493</v>
+        <v>88851503</v>
       </c>
       <c r="B36" t="n">
         <v>77506</v>
@@ -4879,10 +4863,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>455102.8434921129</v>
+        <v>455203.8580852604</v>
       </c>
       <c r="R36" t="n">
-        <v>6661187.225226505</v>
+        <v>6661027.313694566</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4961,7 +4945,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>88851503</v>
+        <v>88851588</v>
       </c>
       <c r="B37" t="n">
         <v>77506</v>
@@ -5001,10 +4985,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>455203.8580852604</v>
+        <v>455301.850633632</v>
       </c>
       <c r="R37" t="n">
-        <v>6661027.313694566</v>
+        <v>6661399.3566486</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5065,7 +5049,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5083,10 +5067,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>88851588</v>
+        <v>88851512</v>
       </c>
       <c r="B38" t="n">
-        <v>77506</v>
+        <v>77177</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5099,21 +5083,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5123,10 +5107,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>455301.850633632</v>
+        <v>455358.8917326015</v>
       </c>
       <c r="R38" t="n">
-        <v>6661399.3566486</v>
+        <v>6660910.656029785</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5187,7 +5171,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gammal kådrik silverstubbe</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5205,10 +5189,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>88851512</v>
+        <v>88851579</v>
       </c>
       <c r="B39" t="n">
-        <v>77177</v>
+        <v>77506</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5221,21 +5205,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5245,10 +5229,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>455358.8917326015</v>
+        <v>455420.1212221009</v>
       </c>
       <c r="R39" t="n">
-        <v>6660910.656029785</v>
+        <v>6661302.120756663</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5309,7 +5293,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>gammal kådrik silverstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5327,10 +5311,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>88851579</v>
+        <v>88851495</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>56366</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5339,38 +5323,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100136</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappuggla</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Strix nebulosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>J.R. Forster, 1772</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Söder Omsjön, Vrm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>455420.1212221009</v>
+        <v>455193.7725582806</v>
       </c>
       <c r="R40" t="n">
-        <v>6661302.120756663</v>
+        <v>6661184.120231732</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5415,6 +5403,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>I häckningstid.</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5427,11 +5420,6 @@
       <c r="AI40" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5449,10 +5437,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88851495</v>
+        <v>88851496</v>
       </c>
       <c r="B41" t="n">
-        <v>56366</v>
+        <v>77506</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5461,42 +5449,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100136</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lappuggla</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Strix nebulosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>J.R. Forster, 1772</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Söder Omsjön, Vrm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>455193.7725582806</v>
+        <v>455190.9941855295</v>
       </c>
       <c r="R41" t="n">
-        <v>6661184.120231732</v>
+        <v>6661161.20084339</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5541,11 +5525,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>I häckningstid.</t>
-        </is>
-      </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
@@ -5558,6 +5537,11 @@
       <c r="AI41" t="inlineStr">
         <is>
           <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5575,7 +5559,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>88851496</v>
+        <v>88851494</v>
       </c>
       <c r="B42" t="n">
         <v>77506</v>
@@ -5615,10 +5599,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>455190.9941855295</v>
+        <v>455157.7848948041</v>
       </c>
       <c r="R42" t="n">
-        <v>6661161.20084339</v>
+        <v>6661184.059924156</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5697,7 +5681,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>88851494</v>
+        <v>88851497</v>
       </c>
       <c r="B43" t="n">
         <v>77506</v>
@@ -5737,10 +5721,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>455157.7848948041</v>
+        <v>455198.0696675617</v>
       </c>
       <c r="R43" t="n">
-        <v>6661184.059924156</v>
+        <v>6661167.601433368</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5819,7 +5803,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>88851497</v>
+        <v>88851502</v>
       </c>
       <c r="B44" t="n">
         <v>77506</v>
@@ -5859,10 +5843,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>455198.0696675617</v>
+        <v>455220.196878638</v>
       </c>
       <c r="R44" t="n">
-        <v>6661167.601433368</v>
+        <v>6661055.557771537</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5941,7 +5925,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>88851502</v>
+        <v>88851582</v>
       </c>
       <c r="B45" t="n">
         <v>77506</v>
@@ -5981,10 +5965,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>455220.196878638</v>
+        <v>455332.6120174829</v>
       </c>
       <c r="R45" t="n">
-        <v>6661055.557771537</v>
+        <v>6661421.934573673</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6045,7 +6029,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6063,7 +6047,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>88851582</v>
+        <v>88851566</v>
       </c>
       <c r="B46" t="n">
         <v>77506</v>
@@ -6103,10 +6087,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>455332.6120174829</v>
+        <v>455345.9643411137</v>
       </c>
       <c r="R46" t="n">
-        <v>6661421.934573673</v>
+        <v>6661163.307621051</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6167,7 +6151,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6185,7 +6169,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>88851566</v>
+        <v>88851568</v>
       </c>
       <c r="B47" t="n">
         <v>77506</v>
@@ -6225,10 +6209,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>455345.9643411137</v>
+        <v>455346.7791193393</v>
       </c>
       <c r="R47" t="n">
-        <v>6661163.307621051</v>
+        <v>6661189.244814977</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6307,7 +6291,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>88851568</v>
+        <v>88851498</v>
       </c>
       <c r="B48" t="n">
         <v>77506</v>
@@ -6347,10 +6331,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>455346.7791193393</v>
+        <v>455219.0529422208</v>
       </c>
       <c r="R48" t="n">
-        <v>6661189.244814977</v>
+        <v>6661166.846860484</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6411,7 +6395,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6429,10 +6413,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>88851498</v>
+        <v>88851584</v>
       </c>
       <c r="B49" t="n">
-        <v>77506</v>
+        <v>77541</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6445,21 +6429,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6469,10 +6453,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>455219.0529422208</v>
+        <v>455313.9589849854</v>
       </c>
       <c r="R49" t="n">
-        <v>6661166.846860484</v>
+        <v>6661408.689560764</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6523,6 +6507,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6533,7 +6518,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6551,10 +6536,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88851584</v>
+        <v>88851506</v>
       </c>
       <c r="B50" t="n">
-        <v>77541</v>
+        <v>77506</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6567,21 +6552,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6591,10 +6576,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>455313.9589849854</v>
+        <v>455251.3537807596</v>
       </c>
       <c r="R50" t="n">
-        <v>6661408.689560764</v>
+        <v>6660904.97669428</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6645,7 +6630,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6656,7 +6640,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6674,10 +6658,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>88851506</v>
+        <v>96124364</v>
       </c>
       <c r="B51" t="n">
-        <v>77506</v>
+        <v>95525</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6686,41 +6670,43 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Söder Omsjön, Vrm</t>
+          <t>Omsjön gravplatsen , Vrm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>455251.3537807596</v>
+        <v>455394.4745343086</v>
       </c>
       <c r="R51" t="n">
-        <v>6660904.97669428</v>
+        <v>6661041.962742212</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6744,22 +6730,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6771,35 +6757,30 @@
       <c r="AG51" t="b">
         <v>0</v>
       </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>Barrblandskog som är naturligt föryngrad för ca 100 år sedan med inslag av äldre träd och död ved.</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>tall</t>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emma Enfjäll</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emma Enfjäll</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>96124364</v>
+        <v>96124296</v>
       </c>
       <c r="B52" t="n">
-        <v>95525</v>
+        <v>77541</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6808,40 +6789,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>221941</v>
+        <v>185</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Omsjön gravplatsen , Vrm</t>
+          <t>Omsjön , Vrm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>455394.4745343086</v>
+        <v>455314.9826630448</v>
       </c>
       <c r="R52" t="n">
-        <v>6661041.962742212</v>
+        <v>6661410.672924263</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6873,7 +6853,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6883,7 +6863,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6897,7 +6877,22 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6915,10 +6910,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>96124296</v>
+        <v>96124305</v>
       </c>
       <c r="B53" t="n">
-        <v>77541</v>
+        <v>90653</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6927,28 +6922,37 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>185</v>
+        <v>4364</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6956,10 +6960,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>455314.9826630448</v>
+        <v>455378.6785451422</v>
       </c>
       <c r="R53" t="n">
-        <v>6661410.672924263</v>
+        <v>6661099.538981039</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6991,7 +6995,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -7001,7 +7005,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7015,22 +7019,7 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7048,10 +7037,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>96124305</v>
+        <v>96124284</v>
       </c>
       <c r="B54" t="n">
-        <v>90653</v>
+        <v>73693</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7060,37 +7049,28 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4364</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7098,10 +7078,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>455378.6785451422</v>
+        <v>455425.424705414</v>
       </c>
       <c r="R54" t="n">
-        <v>6661099.538981039</v>
+        <v>6661286.089543476</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7133,7 +7113,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -7143,7 +7123,12 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>På gammal gran mot sumpskog</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7157,7 +7142,22 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
